--- a/Texas Rangers.xlsx
+++ b/Texas Rangers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,7 +22,13 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>ID</t>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>TEX</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,741 +429,840 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1985</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1112497</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>62</v>
+      </c>
+      <c r="F2">
         <v>10410</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>38840</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>7676500</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1986</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>1692002</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>87</v>
+      </c>
+      <c r="F3">
         <v>32461</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>51168</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>6743119</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1987</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>1763053</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4">
         <v>7562</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>7976</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>880000</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1988</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>1581901</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
         <v>55913</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>44440</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>5342131</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1989</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>2043993</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>83</v>
+      </c>
+      <c r="F6">
         <v>97395</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>61380</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>11893781</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>2057911</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>83</v>
+      </c>
+      <c r="F7">
         <v>152107</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>76664</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>14874372</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1991</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>2297720</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="F8">
         <v>100926</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>44058</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>18224500</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1992</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>2198231</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>77</v>
+      </c>
+      <c r="F9">
         <v>172329</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>65844</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>30128167</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1993</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>2244616</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>86</v>
+      </c>
+      <c r="F10">
         <v>246297</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>81776</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>36376959</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1994</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>2503198</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>52</v>
+      </c>
+      <c r="F11">
         <v>243243</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>71940</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>32973597</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1995</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>1985910</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>74</v>
+      </c>
+      <c r="F12">
         <v>284019</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>75072</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>34581451</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1996</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>2889020</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>90</v>
+      </c>
+      <c r="F13">
         <v>306405</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>73788</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>39041528</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1997</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>2945228</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>77</v>
+      </c>
+      <c r="F14">
         <v>377696</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>83768</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>53448838</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1998</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>2927399</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>88</v>
+      </c>
+      <c r="F15">
         <v>336315</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>68820</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>56572095</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1999</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>2771469</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>95</v>
+      </c>
+      <c r="F16">
         <v>366495</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>69720</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>76709931</v>
       </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>2588401</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>71</v>
+      </c>
+      <c r="F17">
         <v>339599</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>61204</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>70795921</v>
       </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2001</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>2831021</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>73</v>
+      </c>
+      <c r="F18">
         <v>431396</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>73904</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>88633500</v>
       </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2002</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>2352397</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>72</v>
+      </c>
+      <c r="F19">
         <v>413350</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>67592</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>105526122</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2003</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
         <v>2094394</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>71</v>
+      </c>
+      <c r="F20">
         <v>467715</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>73320</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>103491667</v>
       </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2004</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
         <v>2513685</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>89</v>
+      </c>
+      <c r="F21">
         <v>476267</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>71746</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>55050417</v>
       </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2005</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
         <v>2525221</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <v>79</v>
+      </c>
+      <c r="F22">
         <v>533913</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>77593</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>55849000</v>
       </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2006</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>2388757</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="F23">
         <v>559271</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>78523</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>68228662</v>
       </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2007</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
         <v>2353862</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>75</v>
+      </c>
+      <c r="F24">
         <v>528822</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>71764</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>68318675</v>
       </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>1945677</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>79</v>
+      </c>
+      <c r="F25">
         <v>572489</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>75197</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>67712326</v>
       </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2009</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
         <v>2156016</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>87</v>
+      </c>
+      <c r="F26">
         <v>596066</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>76067</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>68178798</v>
       </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2010</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
         <v>2505171</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <v>90</v>
+      </c>
+      <c r="F27">
         <v>620020</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>76937</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>55250544</v>
       </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2011</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
         <v>2946949</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <v>96</v>
+      </c>
+      <c r="F28">
         <v>644351</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>77807</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>92299264</v>
       </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2012</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>3460280</v>
       </c>
-      <c r="D29">
+      <c r="E29">
+        <v>93</v>
+      </c>
+      <c r="F29">
         <v>599859</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>70538</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>120510974</v>
       </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2013</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
         <v>3178273</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>91</v>
+      </c>
+      <c r="F30">
         <v>692694</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>79547</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>112522600</v>
       </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>2718733</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <v>67</v>
+      </c>
+      <c r="F31">
         <v>592596</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>66552</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>112255059</v>
       </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2015</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
         <v>2491875</v>
       </c>
-      <c r="D32">
+      <c r="E32">
+        <v>88</v>
+      </c>
+      <c r="F32">
         <v>765195</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>84090</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>143742789</v>
       </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2016</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
         <v>2710402</v>
       </c>
-      <c r="D33">
+      <c r="E33">
+        <v>95</v>
+      </c>
+      <c r="F33">
         <v>764411</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>82157</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>176038723</v>
-      </c>
-      <c r="G33" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
